--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.14530633333332</v>
+        <v>0.2736413333333333</v>
       </c>
       <c r="H2">
-        <v>234.435919</v>
+        <v>0.820924</v>
       </c>
       <c r="I2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="J2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>572.1744107043523</v>
+        <v>0.1442955445417778</v>
       </c>
       <c r="R2">
-        <v>5149.569696339171</v>
+        <v>1.298659900876</v>
       </c>
       <c r="S2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
       <c r="T2">
-        <v>0.9738103308619316</v>
+        <v>0.1876387849846732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.788137</v>
       </c>
       <c r="I3">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="J3">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>6.804847361884</v>
+        <v>0.490076726557</v>
       </c>
       <c r="R3">
-        <v>61.243626256956</v>
+        <v>4.410690539013</v>
       </c>
       <c r="S3">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
       <c r="T3">
-        <v>0.01158148728249443</v>
+        <v>0.6372851068440097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.172262</v>
+        <v>0.2553206666666667</v>
       </c>
       <c r="H4">
-        <v>3.516786</v>
+        <v>0.765962</v>
       </c>
       <c r="I4">
-        <v>0.01460818185557397</v>
+        <v>0.1750761081713171</v>
       </c>
       <c r="J4">
-        <v>0.01460818185557397</v>
+        <v>0.175076108171317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.583219524151998</v>
+        <v>0.1346347577708889</v>
       </c>
       <c r="R4">
-        <v>77.24897571736798</v>
+        <v>1.211712819938</v>
       </c>
       <c r="S4">
-        <v>0.01460818185557397</v>
+        <v>0.1750761081713171</v>
       </c>
       <c r="T4">
-        <v>0.01460818185557397</v>
+        <v>0.175076108171317</v>
       </c>
     </row>
   </sheetData>
